--- a/ResultadoEleicoesDistritos/FARO_ALBUFEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_ALBUFEIRA.xlsx
@@ -597,61 +597,61 @@
         <v>10800</v>
       </c>
       <c r="H2" t="n">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="I2" t="n">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="J2" t="n">
-        <v>4394</v>
+        <v>4455</v>
       </c>
       <c r="K2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L2" t="n">
-        <v>1165</v>
+        <v>1239</v>
       </c>
       <c r="M2" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N2" t="n">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="S2" t="n">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="T2" t="n">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="U2" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="V2" t="n">
-        <v>7047</v>
+        <v>7006</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>6943</v>
+        <v>6876</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="n">
         <v>43</v>
